--- a/API.xlsx
+++ b/API.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="REST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,7 +998,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,18 +1007,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>